--- a/whowherewhen/whowhenwhere_test_result_kesehatan.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_kesehatan.xlsx
@@ -551,8 +551,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Indonesia, ANDHIKA Y</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -692,8 +694,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Oppo OHealth H1, Oppo, OHealth H1, OHealth</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -818,8 +822,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Zat Besi, Ikan, Lantas, Ayam, Sereal Sereal, Yuk, Kismis</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -993,8 +999,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LE, Lukas, Firli, Firli Bahuri, KPK Firli Bahuri, RSPAD, Lukas Enembe, Gubernur, Kapolda</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -1119,8 +1127,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Almarhum, Jenazah GP, Korban, Lazib</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -1236,8 +1246,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Presiden Joko Widodo, PPKM, Lurah, Eri Cahyadi, RW, Transisi Menuju Edemi, Wali, Dinkes, Eri</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1373,8 +1385,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HIV, Penyakit HIV, Kandidiasis, Berkembang, Penyakit AIDS, Komisi Penanggulangan AIDS, Infeksi HIV, AIDS</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1524,8 +1538,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Instagramnya, Tampak Try Sutrisno, Try Sutrisno, Panglima TNI Laksamana Yudo Margono, Utama Mabes TNI, Yudo, Puspen TNI, Mabes TNI, RSPAD Gatot Soebroto, Amin</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -1637,8 +1653,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pegawai Pemerintah, Terampil, Ahli, PNS, Perjanjian Kerja, PPPK, Simulasi Pemilihan Formasi, Halaman</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -1782,8 +1800,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Badan Usaha Milik, Master Asesor, Penilaian, Keselamatan, BKK, Roni Rakhmat, Dinas Pariwisata, Kadispar, Praktisi, Kepala Dinas Pariwisata, Eni Sumiarsih, Alfa Frisa, Apresiasi, Roni, Kebersihan, Wisata, Rokan Hilir, BumDes, Osvian Putra, Dewan Juri, Kesehatan, Gubernur, Semoga</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -1936,8 +1956,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Soesatyo, GERAK BS, Badan Hubungan Penegakan Hukum, Bamsoet, PT Indoprima Bionet, Umum Partai Golkar, MPR RI, Tim Medis GERAK BS, Shafiqa Al Mahyra, RSUD Cimacan</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -2070,8 +2092,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -2124,7 +2148,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>maluku utara</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -2188,8 +2212,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tulang, Metabolisme</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -2306,8 +2332,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PTT, Indonesia, Kementerian Kesehatan, Fakultas Kedokteran, Puskesmas Indonesia, PIDI, NS, ASN</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -2508,8 +2536,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ketenagakerjaan, Dadang, Dadang Supriatna, BPD, Sunda, RI, Layanan Publik Bebas Korupsi, Anggota Ombudsman RI Indraza Marzuki Rais, Alquran, Komisi Pemberantasan Korupsi, H, KPK Johanis Tanak, Wakil Gubernur, KPK RI, Anti Korupsi, Kesebelas, KPK, BPJS Ketenagakerjaan, Bank BPR Kertaraharja, Kepemimpinan, Hari Anti Korupsi Sedunia, RW, PKK</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -2659,8 +2689,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Posyandu Prima, Indonesia, Kemenkes, Posyandu, Health Information System</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -2788,8 +2820,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Roni, Jousa, Erlina, Kondosapata, Bubun, Niatku</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -2922,8 +2956,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pelaku, Iptu Suwarji, Polres, Seksi Humas Polres, AW</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -3039,8 +3075,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>0</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AKBP Wirdhanto Hadicaksono, Wirdhanto, Kapolres, NFF, Polisi, Tim Sancang Polres, Tarogong Kaler</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -3166,8 +3204,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>0</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SIM Baru, Korlantas Polri, SIM, SIM C, Bukan Pajak, C, Penerimaan, SIM A, SIM Keliling</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -3291,8 +3331,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>0</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pisang Pisang, Jahe, Dietetics, Pisang</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -3420,8 +3462,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>0</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Gadget HP, Healthline, Vitamin B6, Nah, Isi Cara Mudah, Mindfulness, Belakangan, Pijat Yoga, Kurangi, Minum Vitamin</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -3622,8 +3666,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>0</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Leny Puspitasari, International Diabetes Foundation, Sp, Indonesia, RS Pondok Indah Bintaro</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -3745,8 +3791,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>0</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Weng, Nakes RSUD, Polres, Tipidkor Satreskrim Polres, Thomas, Jaspel, NTT, Daerah, Pemkab, Kompol Sepuh AI Siregar, Tipidkor Polres, Kemenkes, RSUD, Wakil Kapolres, Kas Daerah, Tipidkor, Dinas Kesehatan, Pemda, Direktur RSUD, Kementerian Kesehatan</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -3903,8 +3951,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>0</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Olahraga, Osteoporosis Olahraga, Girls, Kesehatan Jantung, Kanker Penyakit, Siswa Pendidikan Jasmani, Menaikkan Mood, Berat Badan, Top Tip, Promosi Kesehatan Kementerian Kesehatan, Diabetes Rutin, Gairah Tubuh</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -4118,8 +4168,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>0</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Infeksi Saluran Pernapasan Akut, Metty, ISPA</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -4241,8 +4293,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>0</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Kapolsek Kawasan Pelabuhan Tanjungwangi AKP Ali Masduki, ABK, Penyeberangan, ABK KMP Jalur, IIM, Breber, Kantor Kesehatan Pelabuhan, Korban, TNI AL, Ali</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -4367,8 +4421,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>0</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DKI, Satuan Tugas</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -4489,8 +4545,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>0</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>La Pulga, Qatar, Thiago Messi, Antonela, Perancis, Barcelona, Kylian Mbappe, Instagram, Argentina, Thiago, Antonela Rocuzzo, Messi, Doha, Lionel Messi</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -4617,8 +4675,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>0</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sanglah, WA, Fikri, Kini Fikri, RSUP Prof Ngoerah, Renon, Bu Laksmi, Sumatera</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -4765,8 +4825,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>0</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>WebMD, Vitamin C, Infeksi Anemia Depresi Nyeri Sendi Mudah Lelah Masalah Gigi, Risiko Penyakit Jantung Manfaat, C, Anemia, Dyah Pita Rengga, Detikhealth, Danu Tahta Wicaksana, Everyday Health, Nourish, Stres Vitamin C, Peningkat Kekebalan Tubuh, Patogenesis, Manfaat Vitamin C Bagi Tubuh Vitamin C, Risiko Penyakit Berbahaya, Healthline, Antioksidan, Detikfood</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -4814,12 +4876,12 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>batu</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>jawa timur</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P32" t="n">
@@ -5130,8 +5192,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>0</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Membantu Mencegah Rematik Bunga, Berani, Bunga, I Wayan Wiweka Arta, Purwanti Pahrurodji, Mengobati, Antioksidan, Nah, Plumeria, Gerakan Sekolah Bersih, Nali</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -5319,8 +5383,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>0</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Joni, KA, Nataru, Dinas Kesehatan, Kesiapsiagaan Menghadapi Libur Hari</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -5456,8 +5522,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>0</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Kelelahan, People Pleaser Untungnya, Takut, Sosial, Amerika Serikat, Coba, W, Hindari, Prioritas Pertimbangkan, Masalah Kecemasan, Cara Berhenti, Trauma Dampak, Masalah Hubungan Cara Berhenti, Gerungan Dipl, Susan Newman, Stres Stres, People Pleaser, Dampak Menjadi People Pleaser</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -5755,8 +5823,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>0</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Siliwangi, Agus Santoso, Rina Wulandari, Rina, Pantauan, Babi, Gondrong, Yogi Arsono, Polisi, LPSK, TNI, Korban, Kopda Muslimin, Padangsari, Sirun, Supriyono, Sugiono, Ponco Aji Nugroho</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -5882,8 +5952,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Gerakan, HIV, Hamil, Indri Bevy, Penanggung Jawab KIA Puskesmas Panunggangan Shirin Syailandira Umri, Dinas Kesehatan, Kepala Bidang Kesehatan Masyarakat Dinkes, Puskesmas Panunggangan, Dhika Prabu Armadhanu, USG</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -6001,8 +6073,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>0</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Partai Garuda, RUU Kesehatan, RUU, Umum Partai Garuda Teddy Gusnaidi, Indonesia, MK, Teddy</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -6117,8 +6191,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>0</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Nah, Humas BNPT, Komjen Boy Rafli Amar, Polsek Astanaanyar, Boy</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -6233,8 +6309,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>0</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Heru Budi Hartono, Massa, Pj Gubernur DKI, Kali Ciliwung, Yusuf Martak, Allah SWT, DKI, Jaktim, Pj Gubernur DKI Heru Budi Hartono, Heru, Acara, Ciliwung</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -6365,8 +6443,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>0</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sandiaga Uno, Bundahan HI, Anies Baswedan, Dinas Perhubungan DKI, Wagub DKI, Bundaran HI, Monas, Basuki Tjahaja Purnama, Ahok, Sandi, Jl, Gubernur DKI, Syafrin Liputo, Syafrin</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -6497,8 +6577,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>0</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Kementerian Sosial, Tuhan, ODGJ, Untung Suropati, Risma</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -6617,8 +6699,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>0</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Curiga, Indro, Polisi, Tali, Kompol Indro Susetiyo, NF, Korban, Kapolsek</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -6733,8 +6817,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>0</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Universitas Katolik Widya Mandala, Pakuwon City, INSURE UWM, FIKom</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -6782,7 +6868,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>sidoarjo</t>
+          <t>surabaya</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -6857,8 +6943,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>0</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Asep, Pejaten, Pasar, Lurah Pejaten, Asep Ahmad Umar</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -6980,8 +7068,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>0</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mahendra Dito, Terdakwa Nikita Mirzani, Edwar, Dedy, JPU Edwar, Nikita, Dedy Ari Saputra, Hakim, Rutan</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -7105,8 +7195,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>0</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Denny, Kanada, Rusia, MNEK, China, TNI AL, Deny, KRI Wahidin</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -7159,7 +7251,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Sulawesi Selatan</t>
+          <t>sulawesi selatan</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -7249,8 +7341,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>0</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Proyek SCORES, Pria, Dr Gray, Nobby Stiles, FIELD, SCORES, Dr Michael Grey, Iwan Roberts, Stiles</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -7391,8 +7485,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>0</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Kesehatan Scorpio, Capricorn</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -7517,8 +7613,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>0</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sri Mulyani, Menteri Keuangan Sri Mulyani Indrawati, Dok, Infrastruktur</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -7651,8 +7749,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>0</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TP PKK, Pesalmen Saragih, Hari, Dirut RSUD, Pemerintah, RSUD, Ny Romy Mariani Simarmata, Ny Romy, Nasional</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -7762,8 +7862,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>0</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Kepolisian, PT LIB, Mabes Polri, Kemenkes, Pengamanan Penyelenggaraan Kompetisi Olahraga, Kementerian PUPR, Ferry Paulus</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -7891,8 +7993,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>0</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Empati Ungkapan, Bapak Guru, Tuhan, Mendukung Kesehatan Fisik Ucapan, Allah SWT, Rasa Percaya, Isi Daftar Ucapan Terima Kasih Manfaat</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -8064,8 +8168,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>0</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Acquired Immune Deficiency Syndrome, HIV, Peringatan Hari AIDS Sedunia</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -8187,8 +8293,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>0</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Nanti, I Wayan Widarsa, Lurah Gilimanuk Ida Bagus Tony Wirahadikusuma, Medikvet, Sampel, Gilimanuk, Widarsa, Tony</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -8310,8 +8418,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>0</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>AKBP Yogen Heroes Baruno, Yogen, N, Iya, Sarmidi</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -8432,8 +8542,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>0</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Himalaya, Garam Himalaya, Garam</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -8557,8 +8669,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>0</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Paviliun Kartika, FINASIM, Wapres Try Sutrisno, Try Sutrisno, Menteri Pertahanan Prabowo Subianto, Pak Try, Panglima TNI, MARS, Lukman Makruf, Kepala BIN AM Hendropriyono, Kepala RSPAD Gatot Soebroto Mayjen TNI, Hj Wury, I Made Mardika, Amin</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -8676,8 +8790,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>0</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Moroko, Adrien Rabiot, Qatar, Argentina, Maroko, Inggris, Rabiot, Suhu, Les Bleus, Piala Dunia, Deschamps, Dayot Upamecano, Perancis, AC, Didier Deschamps</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -8811,8 +8927,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>0</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Rutan Pomdam, Fauzi, Hari, Rutan KPK, Nasrani, KPK, KPK Ahmad Fauzi</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -8945,8 +9063,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>0</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>India, Journal, A, Buah, K, E, Osteoporosis, Kementerian Kesehatan Republik Indonesia, C, Antioksidan, Kesehatan Kemenkes, Ku Gua, Muntah, Imunitas Tubuh, Risiko Penyakit Jantung, Dinpertan, Kanker Studi</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -9207,8 +9327,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>0</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Profesor Patricia Schlagenhauf, Qatar, Pakar, Piala Dunia, Wales</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -9329,8 +9451,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>0</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Keton, Penumpukan, Bersin</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -9466,8 +9590,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>0</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>AKBP I Made Dhanuardana, Lanjut AKBP I Made Dhanuardana, Nataru, Wisata</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -9593,8 +9719,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>0</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>UM, Universitas Muhammadiyah, Tri Kurniawati, Tri</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -9642,12 +9770,12 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>surabaya</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>jawa timur</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -9712,8 +9840,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>0</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>AFP, Anhui, Shandong, Komisi Kesehatan Nasional China, Jiangxi, Bo Tao, Pandemi, Radio Nasional China, China, COVID, Dilansir, Darah, Qingdao</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -9852,8 +9982,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>0</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Sjaifuddin, Daya Manusia Upaya Kesehatan Perorangan BPJS Kesehatan Cabang, Bidang, BPJS, Badan Layanan Umum Daerah, Pemkab, Kepala Dinkes, Nanang Suyanto, BLUD RSUD, Ary Udiyanto, Ary, RSUD, Qomarul Wahyudi, Wahyudi, BPJS Kesehatan</t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -9992,8 +10124,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>0</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ario Pramadhi, Penyidik Direktorat Tindak Pidana Korupsi Bareskrim Polri, Bareskrim Polri, PT JIP, Ramadhan, Ario, Penmas Divhumas Polri Brigjen Ahmad Ramadhan, PT Jakpro, Sumatera, Bareskrim Polri Brigjen Cahyono Wibowo, Cahyono, VP Finance, Christman, Christman Desanto, NTB</t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -10041,12 +10175,12 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>karo</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>sumatera utara</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -10130,9 +10264,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>0</v>
-      </c>
+      <c r="A69" t="inlineStr"/>
       <c r="B69" t="n">
         <v>0</v>
       </c>
@@ -10257,8 +10389,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>0</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Indonesia, Corona, Tanah Air, Kemenkes</t>
+        </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -10369,8 +10503,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>0</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Bamsoet, Arsul Sani, Majelis Syuyukh, Hidrosefalus, DPD, Sidang Paripurna MPR RI, Forum MPR Dunia, Umum FKPPI, Shafiqa Al Mahyra, Multi, IPU, GERAK BS, Fadel Muhammad, MPR RI, Paripurna MPR RI, Shafiqa, Tim Kerja, Majelis Syuro, Hidayat Nur Wahid, MPR Hidayat Nur Wahid, BNPB, Haluan, Panitia Ad Hoc, Umum Pemuda Pancasila, Umum Partai Golkar, Fraksi, Ahmad Muzani, Ahmad Basarah, BMKG</t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -10544,8 +10680,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>0</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Eva, Purwokerto, Antara, Humas PT, Pasar, Solo, KA, Stasiun Pasar, Eva Chairunisa, Solo Balapan</t>
+        </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -10674,8 +10812,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>0</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Syarat, Rosella</t>
+        </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -10822,8 +10962,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>0</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Kemenag Hilman Latief, Arab Saudi, Pengasuh, Drs H A Rijal, KH R Ahmad Azaim Ibrahimy KH Afifuddin Muhajir, Islam, Keberlangsungan Penyelenggaraan Ibadah Haji, Kemenag, Salafiyah, KH R Azami Ibrahimy</t>
+        </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -10989,8 +11131,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>0</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Hilwani, RSUD</t>
+        </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -11103,8 +11247,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>0</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Suardana, Gunung Agung, I Nengah Suardana, Pura Pengubengan, Pendaki</t>
+        </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -11252,8 +11398,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>0</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Kuku</t>
+        </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -11380,8 +11528,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>0</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Allah SWT, HRS</t>
+        </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -11511,8 +11661,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>0</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Perempuan, Hasyim, DKPP, Farhat Abbas, KPU RI Hasyim, KPU, Wanita Emas, KPU RI, Hasnaeni, Idham</t>
+        </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -11630,8 +11782,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>0</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Widya, VAR, I Wayan Widya, HPR</t>
+        </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -11764,8 +11918,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>0</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -11818,7 +11974,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>maluku utara</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P81" t="n">
@@ -11882,8 +12038,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>0</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Saran, SPI, Ketua KPK Firli Bahuri, Persada, KPK, KPK Firli Bahuri, Dedi, TM, SPI Polri, Kepolisian Republik Indonesia, Korps Bhayangkara, Polri, Polri Kadiv Humas Polri Irjen Dedi Prasetyo, Kepolisian RI, Teddy</t>
+        </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -12009,8 +12167,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>0</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Allo Bank, Director, Indonesia, Anggia Elgana, Lyodra, The Trans Luxury Hotel, Afgan, Marketing, Communication The Trans Luxury Hotel, Bawalah Cintaku, Andi Rianto, Wajahmu Mengalihkan Duniaku, Trans Convention Centre, Hotel The Trans, Panah Asmara</t>
+        </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -12135,8 +12295,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>0</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>RPJMN, Keamanan RI Mahfud MD, Hak Asasi Manusia, Penghargaan, Lembaga Pemerintah Non Kementerian, Target Bappenas, Clean Governance, Komisi Informasi, RI Donny Yoesgiantoro, Indonesia, Demokrasi, Cukup Informatif, Menuju Informatif, Direktur Utama BPJS Kesehatan Ali Ghufron Mukti, Menteri Koordinator Politik, Donny, Kurang Informatif, Ghufron, Informatif, BPJS Kesehatan</t>
+        </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -12276,8 +12438,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>0</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>GT Warugunung, Hari, Moker, PT Jasamarga Transjawa Tol, PLL, Hari Pratama, Warugunung, Kejapanan Utama</t>
+        </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -12406,8 +12570,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>0</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Indonesia, Corona, Tanah Air, BNPB</t>
+        </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -12517,8 +12683,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>0</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Mantras, Kompasianer Lilian Kiki Triwulan, Gunung</t>
+        </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -12689,8 +12857,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>0</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Corona, Jubir Kemenkes RI Mohammad Syahril, Kementerian Kesehatan RI, Satgas, Indonesia, PPKM, Syahril, Delta, Prof Wiku Adisasmito</t>
+        </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -12811,8 +12981,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>0</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Jenderal Listyo Sigit Prabowo, Kapolri, Hari, Peduli Lindungi, Tahun Baru, Sigit, Polri</t>
+        </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -12855,17 +13027,17 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>cawas</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>klaten</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>jawa tengah</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P89" t="n">
@@ -12928,8 +13100,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>0</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Pemkab, Presiden Joko Widodo, Andian Sulin, Sumatera, Rokan Hilir, Andre</t>
+        </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -13051,8 +13225,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>0</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Letjen TNI Suharyanto, Wiku, A, RSDC Wisma Atlet, Prof Wiku Adisasmito</t>
+        </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -13173,8 +13349,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>0</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Rina, Aplikasi, BPJS Kesehatan</t>
+        </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -13304,8 +13482,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>0</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Ireland, Jepang, Amerika Serikat, Afrika, DetikHealth, Sacramento, Kelly, Color Meanings, Persia</t>
+        </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -13617,8 +13797,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>0</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Tata Ruang, Aji, Petojo, FKDM, Suku Dinas Cipta Karya, TNI, Firman, Pertanahan, Polri, Pertahanan Jakpus, Jadi</t>
+        </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -13732,8 +13914,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>0</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Bebannya, Direktur Pengelolaan Imunisasi Ditjen P2P Kementerian Kesehatan, KLB Polio, KIPI, Sub Pekan Imunisasi Nasional, PT, Plt, Prima, Besar, Bireun, Prima Yosephine, WHO, Biofarma</t>
+        </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -13862,8 +14046,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>0</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Mual</t>
+        </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -13989,8 +14175,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>0</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Senayan, OSO, Anies</t>
+        </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -14043,7 +14231,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -14110,8 +14298,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>0</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Pelabuhan, Kasat Polairud Iptu Wayan Merta, Ditpolairud Polda NTT Markas Unit, Dina, Pasien, Polres, KP, Pulau Mesa, Pasir Putih, Rumah Sakit, Wayan Merta, Satpolairud</t>
+        </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -14224,8 +14414,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>0</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Aulia Rachman, Labuhan, Bobby, RSUD H Bachtiar Djafar, Bobby Nasution, Bachtiar Djafar, BPJS, Universal Health Coverage, JKMB, Rosmeini Bachtiar Djafar, Ali, Rosmeini, Direktur Perluasan, Dirut BPJS Kesehatan Ali Ghufron Mukti, UHC JKMB, BPJS Kesehatan Ali Ghufron, Dirut BPJS Kesehatan, Pemkot, BPJS Kesehatan</t>
+        </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -14409,8 +14601,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>0</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Bivalen OPV, OPV, Polio Oral Trivalen, Polio, Penyakit Polio, Vaksin Trivalen, Vaksin Polio</t>
+        </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -14572,8 +14766,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>0</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Nugroho, Bandara Hang Nadim, Nataru, KKP, Polsek Bandara, Hang Nadim Letkol Pnb Iwan Setiawan, Direktur Operasional BIB</t>
+        </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -14702,8 +14898,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>0</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>University, Afrika, Lancaster University James Robinson, Kendra Byrd, Greenwich Natural Resources Institute, Illuminating Hidden Harvests, Godfred Asiedu, Ikan Kecil</t>
+        </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -14843,8 +15041,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>0</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Dr Abdul Moqsith Ghozali, Arab Saudi, BIPIH, Kemenag, Hilman Latief, Drs H A Rijal</t>
+        </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -15005,8 +15205,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>0</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>K, Amerika, E, Healthline, Risiko Granola, Vitamin, B6, The Spruce Eats, Energi Manfaat, Manfaat Granola Granola, Gula Darah Manfaat</t>
+        </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -15194,8 +15396,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>0</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>HPR, Komang Suastika, Edukasi, Gede Suyasa, Lantut Suyasa, VAR, Sekda, Rumah Sakit Pemerintah</t>
+        </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -15321,8 +15525,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>0</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MH Hadi Yusuf, Dedy Adi Saputra, JPU Budi Atmoko, Kejari, Pengadilan Negeri, Dito Mahendra, Nikita Mirzani, Budi, Hakim Dedy</t>
+        </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -15437,8 +15643,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>0</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Majelis Jemaat GPIB Maranatha, Yusuf, Samuel Hanof Jusup Uruilal, Samuel, Karya Keselamatan Alam Menerangi Perjalanan Kehidupan Manusia, Tuhan Yesus, GPIB Maranatha, Rencananya</t>
+        </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -15486,12 +15694,12 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>denpasar</t>
+          <t>-</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>bali</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P107" t="n">
@@ -15571,8 +15779,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>0</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>BPBD, BNPB Suharyanto, Suharyanto</t>
+        </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -15701,8 +15911,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>0</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Zero Stunting, Ridwan, Penghargaan, Konvergensi, Nina, Gubernur Ridwan Kamil, Nina Agustina</t>
+        </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -15821,8 +16033,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>0</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Dharmawangsa, RS, Sutrisno, ICU, IDI</t>
+        </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -15935,8 +16149,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>0</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Badan Pengawasan Keuangan, Indonesia, BPKN, TPF BPKN, Rizal, Kementerian Kesehatan, Perlindungan Konsumen, Rizal E Halim</t>
+        </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -16062,8 +16278,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>0</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Ingat, Rahmad, PPKM, Jokowi Beri Sinyal PPKM Disetop Akhir Tahun, Jokowi</t>
+        </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -16200,8 +16418,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>0</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>JKN, Direktur Utama BPJS Kesehatan Ghufron Mukti, UHC, Wakil Gubernur, Taj Yasin Maimoen, Indonesia, Program JKN, Pemerintah, Ghufron</t>
+        </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -16357,8 +16577,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>0</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Direktur Rumah Sakit, Prof Sasmito Djati, Dr Nazarudin Malik, Dr Syamsudin, Dr M Solihin Fanani, Prof Biyanto, Rektor Universitas Muhammadiyah, Hidayatur Rahman, Edi, Muhammadiyah, Suko, Khoirul Abduh, Musywil, PW Muhammadiyah, Dr Sulthon Amien, Sukadiono, KH Saad Ibrahim, Dr Hidayatullah, Zainul Muslimin, Prof Thohir Luth, Ir Tamhid Masyhudi, Expotorium, Musyawarah Wilayah, Memajukan, PWM</t>
+        </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -16495,8 +16717,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>0</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Mahendra Dito, Edwar, Dedy, JPU Edwar, Nikita, Dedy Ari Saputra, Nikita Mirzani, Hakim, Rutan</t>
+        </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -16625,8 +16849,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>0</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Indonesia, Al Nahyan, Sumatra, Menariknya, Jokowi, Kaesang Pangarep, Bobby Nasution</t>
+        </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -16754,8 +16980,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>0</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Irjen Toni Harmanto, Panglima Sudirman, Polres, Kapolda, Toni, Personel, Boy</t>
+        </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -16868,8 +17096,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>0</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Fajar Aciana, Kang, Fajar, Pemkab, Koordinator Lapangan Tanggap Darurat Bencana PMI, Ikbal Selamet</t>
+        </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -16987,8 +17217,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>0</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>RS Persahabatan, Erlina Burhan, Erlina</t>
+        </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -17114,8 +17346,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>0</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Cabai</t>
+        </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -17234,8 +17468,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>0</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>PT Unilever Indonesia, Ungkap, RSGM UNUD, Kementerian Kesehatan Republik Indonesia, MSc, Ketua Pengurus Besar PDGI, Andrew White, Putu Ratna Kusumadewi, Pepsodent Pencegah Gigi Berlubang, Putu Lestari Sudirman, AFDOKGI, Koordinator Program Studi Pendidikan Dokter Gigi FK UNUD, Pepsodent, BKGN, Indonesia, Nana, Unilever Indonesia, Survei, Ratu Mirah, Tambah, Ratu Mirah Afifah, ARSGMPI, Tbk, Professional Marketing Personal Care Unilever Indonesia, Head, Usman Sumantri</t>
+        </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -17423,8 +17659,10 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>0</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Pemandian Air Panas, Mengeruda, Celcius, Bandara, Pulau Flores, Tourism Information Center Mitra Praja Utama, Gunung Inielika, NTT, Tour Flores, Harga Tiket Masuk Pemandian Air Panas</t>
+        </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -17590,8 +17828,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>0</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Grace, PRICE, Dilansir, Cedera Bahu Sembari, SpKO</t>
+        </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -17719,8 +17959,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>0</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Polisi, Ketua, Keluarga, Misteri, Asiung</t>
+        </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -17850,8 +18092,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>0</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Turki, Mater Ecclesiae, Menag, Yaqut Cholil Qoumas, Selamat, Vatikan, Paus, Paus Benediktus, Mantan Paus Benediktus, Benediktus, Muslim, Paus Emeritus</t>
+        </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -17968,8 +18212,10 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>0</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Kementerian Agama RI, Islam Hukum KB, Islam, Nabi Muhammad SAW, Allah, KB, Rasulullah SAW</t>
+        </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -18150,8 +18396,10 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>0</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Sp, Aryanti, Dokter Spesialis Penyakit, PD</t>
+        </is>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -18279,8 +18527,10 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>0</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>RUU, Omnibus Law, Saleh Partaonan Daulay, Kemarin, Saleh, DPR</t>
+        </is>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -18333,7 +18583,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>sumatera utara</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -18419,8 +18669,10 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>0</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Kolesterol, Dilansir</t>
+        </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -18537,8 +18789,10 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>0</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Indonesia, Corona, Tanah Air, Satgas Penanganan</t>
+        </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -18651,8 +18905,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>0</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>KLB, Indonesia, Prof Tjandra, Polio, Direktur Pasca Sarjana Universitas YARSI, Biofarma</t>
+        </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -18780,8 +19036,10 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>0</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Eksfoliasi Wajah Efek Samping, Eksfoliasi Wajah Perbedaan Eksfoliasi, Warna Kulit Proses, Eksfoliasi, BHA, Manfaat Eksfoliasi Wajah, Langka, Shah, Kulit Makin Kencang, Peeling, Kulit, Eksfoliasi Wajah, Kulit Makin Kencang Langkah Tepat, Eksfoliasi Wajah Eksfoliasi, Efek Samping</t>
+        </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -18996,8 +19254,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>0</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Pj Gubernur DKI, Anwar, Menteri Agama, Nasrani, Pemkot, Wali, Muhammad Anwar, Muslim</t>
+        </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -19113,8 +19373,10 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>0</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Korban, GP, Putri GP</t>
+        </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -19228,8 +19490,10 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>0</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Alhamdulillah, Dapoer Kecombrang Emanuel Sutjipto Widarta, Tjipto</t>
+        </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -19345,8 +19609,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>0</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Lantas, Mata Minus, SpM, Kebayoran Baru, Miopia, Operasi, Nah, Cara, Dilansir, Zoraya, Feranthy</t>
+        </is>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -19468,8 +19734,10 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>0</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Kepala Seksi Surveilans, Transmisi Lokal Ngabila, XBB, Epidemiologi, Ngabila, Dinas Kesehatan DKI, Singapura, Ngabila Salama, Omicron</t>
+        </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -19522,7 +19790,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P137" t="n">
@@ -19584,8 +19852,10 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>0</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Kabinet Indonesia Maju, Badan Kebijakan Transportasi, Presiden Joko Widodo, Nataru, Presiden, Jokowi, Menteri Perhubungan Budi Karya Sumadi, Kemenhub, Polri, Budi</t>
+        </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -19707,8 +19977,10 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>0</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Selengkapnya, Sutarto, Dandim, Kapten Inf Sutarto, Indonesia, Kopeng, TNI, Danramil</t>
+        </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -19834,8 +20106,10 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>0</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Terapi Cara, Konstipasi Konstipasi, Parkinson, Sodium Pikosulfat, RS Pondok Indah, Siloam Hospitals, Konstipasi, BAB Perut, Frekuensi BAB, BAB, Rajin</t>
+        </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -20041,8 +20315,10 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>0</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Natalia Dmitrieva, Peneliti, Maryland, DEBM</t>
+        </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -20200,8 +20476,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>0</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Budi, Menteri Kesehatan Budi Gunadi Sadikin</t>
+        </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -20328,8 +20606,10 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>0</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Profesor Matthew Ferrari Penn State University, Ferrari, Amerika Serikat, Omicron, Campak</t>
+        </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -20479,8 +20759,10 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>0</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Kebudayaan, Kantor Presiden, Indonesia, Budi Gunadi Sadikin, Budi Gunadi, Kemenkes, Riset, Polri, Sri Mulyani Indrawati</t>
+        </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -20623,8 +20905,10 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>0</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>DKI, Badan Amil Zakat Nasional, Iwan</t>
+        </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -20677,7 +20961,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>DKI Jakarta</t>
+          <t>dki jakarta</t>
         </is>
       </c>
       <c r="P145" t="n">
